--- a/biology/Zoologie/Gangatiri/Gangatiri.xlsx
+++ b/biology/Zoologie/Gangatiri/Gangatiri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La gangatiri est une race bovine indienne. Elle appartient à la sous-espèce zébuine de Bos taurus.
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une race élevée en Inde, principalement dans la zone frontalière de l'État de l'Uttar Pradesh. Son nom vient de la ville de Deoni et du Bihar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une race élevée en Inde, principalement dans la zone frontalière de l'État de l'Uttar Pradesh. Son nom vient de la ville de Deoni et du Bihar.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -574,9 +590,11 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une race mixte traction lait. La vache produit 4-6 litres par jour sur une lactation de 150-250 jours[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une race mixte traction lait. La vache produit 4-6 litres par jour sur une lactation de 150-250 jours. 
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
